--- a/Code/Results/Cases/Case_9_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9994168742142202</v>
+        <v>0.9994427298645649</v>
       </c>
       <c r="D2">
-        <v>1.024196193784334</v>
+        <v>1.023787998286727</v>
       </c>
       <c r="E2">
-        <v>1.005942755618913</v>
+        <v>1.005972682376567</v>
       </c>
       <c r="F2">
-        <v>1.028458420330904</v>
+        <v>1.028219053471685</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044687903778397</v>
+        <v>1.044532984376283</v>
       </c>
       <c r="J2">
-        <v>1.021615040473119</v>
+        <v>1.021640121571188</v>
       </c>
       <c r="K2">
-        <v>1.035328422904013</v>
+        <v>1.034925585000238</v>
       </c>
       <c r="L2">
-        <v>1.017319914657547</v>
+        <v>1.017349430686665</v>
       </c>
       <c r="M2">
-        <v>1.039535025483534</v>
+        <v>1.039298767167817</v>
       </c>
       <c r="N2">
-        <v>1.011073731596583</v>
+        <v>1.012912769715778</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039861710962978</v>
+        <v>1.039674728156664</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036050503020038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035774463108838</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021353907495213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002965270126182</v>
+        <v>1.00286183452216</v>
       </c>
       <c r="D3">
-        <v>1.026557688906468</v>
+        <v>1.025984951881684</v>
       </c>
       <c r="E3">
-        <v>1.008709366100248</v>
+        <v>1.008626224341249</v>
       </c>
       <c r="F3">
-        <v>1.030989720158463</v>
+        <v>1.030630547775113</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045231293236946</v>
+        <v>1.045006218144688</v>
       </c>
       <c r="J3">
-        <v>1.023375424004382</v>
+        <v>1.023274785914982</v>
       </c>
       <c r="K3">
-        <v>1.036861672037216</v>
+        <v>1.036295804985452</v>
       </c>
       <c r="L3">
-        <v>1.019232008735295</v>
+        <v>1.019149908115398</v>
       </c>
       <c r="M3">
-        <v>1.041240860928941</v>
+        <v>1.04088594992578</v>
       </c>
       <c r="N3">
-        <v>1.011675498787157</v>
+        <v>1.01335657646209</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041211765276768</v>
+        <v>1.040930877236261</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037131976630202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036740383399642</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021622938911633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005224139929769</v>
+        <v>1.005039347319024</v>
       </c>
       <c r="D4">
-        <v>1.028064239358156</v>
+        <v>1.027387375767143</v>
       </c>
       <c r="E4">
-        <v>1.010476506394022</v>
+        <v>1.010322122284816</v>
       </c>
       <c r="F4">
-        <v>1.03260753242158</v>
+        <v>1.032172669559676</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045567550791409</v>
+        <v>1.045298039428197</v>
       </c>
       <c r="J4">
-        <v>1.024495149179884</v>
+        <v>1.024315018645359</v>
       </c>
       <c r="K4">
-        <v>1.037835353587465</v>
+        <v>1.037166124799337</v>
       </c>
       <c r="L4">
-        <v>1.020450112462542</v>
+        <v>1.020297544446282</v>
       </c>
       <c r="M4">
-        <v>1.042327718593522</v>
+        <v>1.041897706449658</v>
       </c>
       <c r="N4">
-        <v>1.012058101407016</v>
+        <v>1.013638926734083</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042071938886913</v>
+        <v>1.041731613766676</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037821355619021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037356757921429</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021791486964014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006168038048812</v>
+        <v>1.005949449827731</v>
       </c>
       <c r="D5">
-        <v>1.028696509082718</v>
+        <v>1.027976318083709</v>
       </c>
       <c r="E5">
-        <v>1.011216679028003</v>
+        <v>1.011032678435566</v>
       </c>
       <c r="F5">
-        <v>1.033285788227599</v>
+        <v>1.03281944874169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045707100739575</v>
+        <v>1.04541907951115</v>
       </c>
       <c r="J5">
-        <v>1.024964197957178</v>
+        <v>1.02475096075163</v>
       </c>
       <c r="K5">
-        <v>1.03824426603775</v>
+        <v>1.037531984592535</v>
       </c>
       <c r="L5">
-        <v>1.020960334215368</v>
+        <v>1.020778440188806</v>
       </c>
       <c r="M5">
-        <v>1.042783460838256</v>
+        <v>1.04232218574355</v>
       </c>
       <c r="N5">
-        <v>1.012218594767081</v>
+        <v>1.01375744231497</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042432627442946</v>
+        <v>1.042067560016636</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03811768141736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037623351574728</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021862221296554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006329577391373</v>
+        <v>1.006105196262179</v>
       </c>
       <c r="D6">
-        <v>1.028807185092511</v>
+        <v>1.02807963345604</v>
       </c>
       <c r="E6">
-        <v>1.011343861441552</v>
+        <v>1.011154779239531</v>
       </c>
       <c r="F6">
-        <v>1.033402837440164</v>
+        <v>1.032931139803034</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045732543853384</v>
+        <v>1.045441363973003</v>
       </c>
       <c r="J6">
-        <v>1.025046159209398</v>
+        <v>1.024827242842953</v>
       </c>
       <c r="K6">
-        <v>1.038317427566226</v>
+        <v>1.037597830095907</v>
       </c>
       <c r="L6">
-        <v>1.021048921763853</v>
+        <v>1.020861994343233</v>
       </c>
       <c r="M6">
-        <v>1.042863154024127</v>
+        <v>1.042396555688279</v>
       </c>
       <c r="N6">
-        <v>1.012246958143633</v>
+        <v>1.013778430074358</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042495699085035</v>
+        <v>1.042126418711502</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038178179371193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03767954408959</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021875463501129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005246358172192</v>
+        <v>1.005068070695556</v>
       </c>
       <c r="D7">
-        <v>1.028085611096965</v>
+        <v>1.027412988834469</v>
       </c>
       <c r="E7">
-        <v>1.010495079459801</v>
+        <v>1.01034653413123</v>
       </c>
       <c r="F7">
-        <v>1.032625851284175</v>
+        <v>1.032194671141814</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045575409261976</v>
+        <v>1.045307811248365</v>
       </c>
       <c r="J7">
-        <v>1.024510765108039</v>
+        <v>1.024336973639415</v>
       </c>
       <c r="K7">
-        <v>1.037853592693277</v>
+        <v>1.037188554434369</v>
       </c>
       <c r="L7">
-        <v>1.020465507600379</v>
+        <v>1.020318709002684</v>
       </c>
       <c r="M7">
-        <v>1.042342958425932</v>
+        <v>1.041916586088647</v>
       </c>
       <c r="N7">
-        <v>1.012064321261593</v>
+        <v>1.013671471158391</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042084000166135</v>
+        <v>1.041746555709464</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03785441606228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037394777616685</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021797860581529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000635938430443</v>
+        <v>1.000639767243039</v>
       </c>
       <c r="D8">
-        <v>1.025014812959319</v>
+        <v>1.024566024334716</v>
       </c>
       <c r="E8">
-        <v>1.006893492267169</v>
+        <v>1.006904693326099</v>
       </c>
       <c r="F8">
-        <v>1.029329613097592</v>
+        <v>1.029062546081221</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044882204064992</v>
+        <v>1.044710397312617</v>
       </c>
       <c r="J8">
-        <v>1.022225709535753</v>
+        <v>1.022229427476634</v>
       </c>
       <c r="K8">
-        <v>1.035866276944931</v>
+        <v>1.035423205464492</v>
       </c>
       <c r="L8">
-        <v>1.017980889506333</v>
+        <v>1.017991941439111</v>
       </c>
       <c r="M8">
-        <v>1.040126427980145</v>
+        <v>1.039862726900484</v>
       </c>
       <c r="N8">
-        <v>1.011283666973407</v>
+        <v>1.013152409648685</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040329766649371</v>
+        <v>1.040121064845919</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036453791306295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03615156611817</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021455638380686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9921998322086464</v>
+        <v>0.9925204457555769</v>
       </c>
       <c r="D9">
-        <v>1.019413215963287</v>
+        <v>1.019361770205878</v>
       </c>
       <c r="E9">
-        <v>1.000349879065962</v>
+        <v>1.000637553869447</v>
       </c>
       <c r="F9">
-        <v>1.023347047056824</v>
+        <v>1.023370416266531</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043531850123516</v>
+        <v>1.043529345423021</v>
       </c>
       <c r="J9">
-        <v>1.018031073577591</v>
+        <v>1.018340119504573</v>
       </c>
       <c r="K9">
-        <v>1.032198987974974</v>
+        <v>1.032148336833537</v>
       </c>
       <c r="L9">
-        <v>1.013437282275767</v>
+        <v>1.013720295668944</v>
       </c>
       <c r="M9">
-        <v>1.036072360107364</v>
+        <v>1.036095371927703</v>
       </c>
       <c r="N9">
-        <v>1.009847958021952</v>
+        <v>1.012104923933412</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037121235813902</v>
+        <v>1.037139448212469</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033857571293858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033832540030771</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020798267063303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9864132017536105</v>
+        <v>0.9869865454463289</v>
       </c>
       <c r="D10">
-        <v>1.015619242120415</v>
+        <v>1.015863612142962</v>
       </c>
       <c r="E10">
-        <v>0.9959031354780896</v>
+        <v>0.9964112383164828</v>
       </c>
       <c r="F10">
-        <v>1.01936402731651</v>
+        <v>1.019607053976066</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042577586660273</v>
+        <v>1.042701162056465</v>
       </c>
       <c r="J10">
-        <v>1.015176449598886</v>
+        <v>1.01572616487124</v>
       </c>
       <c r="K10">
-        <v>1.029712098929132</v>
+        <v>1.029952231970149</v>
       </c>
       <c r="L10">
-        <v>1.010346756169705</v>
+        <v>1.010845592697141</v>
       </c>
       <c r="M10">
-        <v>1.033392243814819</v>
+        <v>1.033631096696823</v>
       </c>
       <c r="N10">
-        <v>1.008874764669467</v>
+        <v>1.011514853082215</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035051743441147</v>
+        <v>1.035240769020084</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032116053284083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032298305434284</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020353919851502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.984273496345669</v>
+        <v>0.9849636308364206</v>
       </c>
       <c r="D11">
-        <v>1.014428706158028</v>
+        <v>1.014787749850409</v>
       </c>
       <c r="E11">
-        <v>0.994322991240697</v>
+        <v>0.9949323342404477</v>
       </c>
       <c r="F11">
-        <v>1.018554267413359</v>
+        <v>1.018885807598664</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042366337105001</v>
+        <v>1.042536068580001</v>
       </c>
       <c r="J11">
-        <v>1.014315473746373</v>
+        <v>1.014975600664383</v>
       </c>
       <c r="K11">
-        <v>1.029083553205898</v>
+        <v>1.029436077128105</v>
       </c>
       <c r="L11">
-        <v>1.009352767663253</v>
+        <v>1.009950456310526</v>
       </c>
       <c r="M11">
-        <v>1.03313455956684</v>
+        <v>1.033460142392242</v>
       </c>
       <c r="N11">
-        <v>1.0086182854718</v>
+        <v>1.011566936510369</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035285636119019</v>
+        <v>1.035543168287005</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031704630458351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031969557540685</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020295136572271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9836179322481413</v>
+        <v>0.9843378396973254</v>
       </c>
       <c r="D12">
-        <v>1.014147872744717</v>
+        <v>1.014532589462624</v>
       </c>
       <c r="E12">
-        <v>0.9938647996524569</v>
+        <v>0.9944989863618894</v>
       </c>
       <c r="F12">
-        <v>1.018583898905051</v>
+        <v>1.018935876525436</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042361955494035</v>
+        <v>1.0425399058561</v>
       </c>
       <c r="J12">
-        <v>1.014132164892084</v>
+        <v>1.014820166319836</v>
       </c>
       <c r="K12">
-        <v>1.029008950263545</v>
+        <v>1.029386565527966</v>
       </c>
       <c r="L12">
-        <v>1.009110491957241</v>
+        <v>1.009732341461027</v>
       </c>
       <c r="M12">
-        <v>1.033363516147854</v>
+        <v>1.033709069814531</v>
       </c>
       <c r="N12">
-        <v>1.008585659540802</v>
+        <v>1.011647612516189</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035794141141919</v>
+        <v>1.036067376927515</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031651883332503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03193455171282</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020317487349348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9840735760619976</v>
+        <v>0.9847468966702302</v>
       </c>
       <c r="D13">
-        <v>1.014565750001265</v>
+        <v>1.014900877355276</v>
       </c>
       <c r="E13">
-        <v>0.9942485611176979</v>
+        <v>0.9948404402280208</v>
       </c>
       <c r="F13">
-        <v>1.019285519039371</v>
+        <v>1.019599906813515</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042528983798562</v>
+        <v>1.042682908227285</v>
       </c>
       <c r="J13">
-        <v>1.014472457559355</v>
+        <v>1.015116083837343</v>
       </c>
       <c r="K13">
-        <v>1.029375998820046</v>
+        <v>1.029704967012203</v>
       </c>
       <c r="L13">
-        <v>1.009442378009946</v>
+        <v>1.010022792682495</v>
       </c>
       <c r="M13">
-        <v>1.03400951069118</v>
+        <v>1.034318189706512</v>
       </c>
       <c r="N13">
-        <v>1.008729130919437</v>
+        <v>1.011723893135352</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036582291795551</v>
+        <v>1.036826308464473</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031908897479896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032156923652131</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020408586277387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9848962997820282</v>
+        <v>0.9855032258409867</v>
       </c>
       <c r="D14">
-        <v>1.015175359527932</v>
+        <v>1.015442419432001</v>
       </c>
       <c r="E14">
-        <v>0.9948989594628971</v>
+        <v>0.9954316360720045</v>
       </c>
       <c r="F14">
-        <v>1.020080270673902</v>
+        <v>1.020342688385015</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042723447903566</v>
+        <v>1.042846455552217</v>
       </c>
       <c r="J14">
-        <v>1.014947768286896</v>
+        <v>1.015528311380355</v>
       </c>
       <c r="K14">
-        <v>1.029833256332564</v>
+        <v>1.030095469148945</v>
       </c>
       <c r="L14">
-        <v>1.009934815473945</v>
+        <v>1.010457305082922</v>
       </c>
       <c r="M14">
-        <v>1.034649670032832</v>
+        <v>1.034907384186847</v>
       </c>
       <c r="N14">
-        <v>1.008909413085624</v>
+        <v>1.011776665129746</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037261996726293</v>
+        <v>1.037465697098666</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032233626633907</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032434586566775</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020503833212178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9853435032309337</v>
+        <v>0.9859180423513599</v>
       </c>
       <c r="D15">
-        <v>1.015484529417642</v>
+        <v>1.015718738079232</v>
       </c>
       <c r="E15">
-        <v>0.9952456461695087</v>
+        <v>0.9957497118095782</v>
       </c>
       <c r="F15">
-        <v>1.020436741961944</v>
+        <v>1.020674011845438</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042812067590564</v>
+        <v>1.042920639316439</v>
       </c>
       <c r="J15">
-        <v>1.01518411580942</v>
+        <v>1.015733898107643</v>
       </c>
       <c r="K15">
-        <v>1.030049881768661</v>
+        <v>1.030279871800519</v>
       </c>
       <c r="L15">
-        <v>1.010185353358944</v>
+        <v>1.010679853792166</v>
       </c>
       <c r="M15">
-        <v>1.034913428992472</v>
+        <v>1.035146478783559</v>
       </c>
       <c r="N15">
-        <v>1.008994182459764</v>
+        <v>1.011793396362367</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037508072820035</v>
+        <v>1.03769227332102</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032392683668079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032571428158681</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02054482820509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9877031991046464</v>
+        <v>0.9881301367265655</v>
       </c>
       <c r="D16">
-        <v>1.017015532964929</v>
+        <v>1.017098606873989</v>
       </c>
       <c r="E16">
-        <v>0.9970463121428819</v>
+        <v>0.9974212872491225</v>
       </c>
       <c r="F16">
-        <v>1.02202144428309</v>
+        <v>1.022143210926121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043200232810367</v>
+        <v>1.043244712228319</v>
       </c>
       <c r="J16">
-        <v>1.016334961010924</v>
+        <v>1.016744421687945</v>
       </c>
       <c r="K16">
-        <v>1.031048419688255</v>
+        <v>1.031130062246276</v>
       </c>
       <c r="L16">
-        <v>1.011432266678987</v>
+        <v>1.011800442602438</v>
       </c>
       <c r="M16">
-        <v>1.035968616359833</v>
+        <v>1.036088311536247</v>
       </c>
       <c r="N16">
-        <v>1.009381353609534</v>
+        <v>1.011856125003725</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038303304011586</v>
+        <v>1.038397912722702</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033101870150051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033176023649645</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020712759541447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9890851945348043</v>
+        <v>0.9894419789828645</v>
       </c>
       <c r="D17">
-        <v>1.017872560838482</v>
+        <v>1.017881218730352</v>
       </c>
       <c r="E17">
-        <v>0.9980907302519975</v>
+        <v>0.9984049267838933</v>
       </c>
       <c r="F17">
-        <v>1.022817054365935</v>
+        <v>1.022882375069226</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043393878298571</v>
+        <v>1.043407773231675</v>
       </c>
       <c r="J17">
-        <v>1.016969372129456</v>
+        <v>1.017312021015599</v>
       </c>
       <c r="K17">
-        <v>1.031574311873823</v>
+        <v>1.031582824756821</v>
       </c>
       <c r="L17">
-        <v>1.012132318903897</v>
+        <v>1.012440981332601</v>
       </c>
       <c r="M17">
-        <v>1.03643650568641</v>
+        <v>1.03650074599847</v>
       </c>
       <c r="N17">
-        <v>1.009584018788369</v>
+        <v>1.011905854454211</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03854385642445</v>
+        <v>1.038594637920914</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033476296557063</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033498990501099</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020792457257972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9897433548821937</v>
+        <v>0.9900807498591908</v>
       </c>
       <c r="D18">
-        <v>1.018204585331841</v>
+        <v>1.018191945235245</v>
       </c>
       <c r="E18">
-        <v>0.9985672882739721</v>
+        <v>0.9988655082713834</v>
       </c>
       <c r="F18">
-        <v>1.022955542192228</v>
+        <v>1.023004744991839</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.0434285156122</v>
+        <v>1.04343523659599</v>
       </c>
       <c r="J18">
-        <v>1.017199525384055</v>
+        <v>1.017523803996364</v>
       </c>
       <c r="K18">
-        <v>1.031716312319435</v>
+        <v>1.031703880488466</v>
       </c>
       <c r="L18">
-        <v>1.012410798100036</v>
+        <v>1.012703853296822</v>
       </c>
       <c r="M18">
-        <v>1.036389457959644</v>
+        <v>1.036437859773068</v>
       </c>
       <c r="N18">
-        <v>1.009639237664606</v>
+        <v>1.011905699328532</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038268452310958</v>
+        <v>1.038306721598526</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033565016826888</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033571768804198</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02079426251616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.989754172239011</v>
+        <v>0.9901116373436004</v>
       </c>
       <c r="D19">
-        <v>1.018073817311566</v>
+        <v>1.018083521749495</v>
       </c>
       <c r="E19">
-        <v>0.9985371189439587</v>
+        <v>0.9988540875680991</v>
       </c>
       <c r="F19">
-        <v>1.02249955084807</v>
+        <v>1.02256540527246</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043327767055102</v>
+        <v>1.043346433233462</v>
       </c>
       <c r="J19">
-        <v>1.017072994610845</v>
+        <v>1.017416645439223</v>
       </c>
       <c r="K19">
-        <v>1.031524788362646</v>
+        <v>1.031534333710513</v>
       </c>
       <c r="L19">
-        <v>1.012316472187982</v>
+        <v>1.012627980501019</v>
       </c>
       <c r="M19">
-        <v>1.035878370853316</v>
+        <v>1.035943157733602</v>
       </c>
       <c r="N19">
-        <v>1.009567878796464</v>
+        <v>1.011845229338672</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037537967414392</v>
+        <v>1.037589208518156</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03343602178471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033458937199405</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020729604043227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9879372130990551</v>
+        <v>0.9884224061281988</v>
       </c>
       <c r="D20">
-        <v>1.016634039912809</v>
+        <v>1.016785449870032</v>
       </c>
       <c r="E20">
-        <v>0.9970754030538411</v>
+        <v>0.9975060392575529</v>
       </c>
       <c r="F20">
-        <v>1.02042040293802</v>
+        <v>1.020592712927988</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042844331697272</v>
+        <v>1.042927633236166</v>
       </c>
       <c r="J20">
-        <v>1.015941187121712</v>
+        <v>1.016407037052181</v>
       </c>
       <c r="K20">
-        <v>1.030390572663556</v>
+        <v>1.030539431938402</v>
       </c>
       <c r="L20">
-        <v>1.011169873651933</v>
+        <v>1.011592884174057</v>
       </c>
       <c r="M20">
-        <v>1.034113442610023</v>
+        <v>1.034282877592959</v>
       </c>
       <c r="N20">
-        <v>1.009138348886727</v>
+        <v>1.011602668330252</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035611905794588</v>
+        <v>1.035745996431358</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032638019792882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032759829097353</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020475850629496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9835182634177676</v>
+        <v>0.9843052534961981</v>
       </c>
       <c r="D21">
-        <v>1.013702387126798</v>
+        <v>1.014159716398594</v>
       </c>
       <c r="E21">
-        <v>0.9936815027011103</v>
+        <v>0.9943784277058667</v>
       </c>
       <c r="F21">
-        <v>1.017264088550726</v>
+        <v>1.01767142385142</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042068709114499</v>
+        <v>1.04228551236657</v>
       </c>
       <c r="J21">
-        <v>1.013721615641533</v>
+        <v>1.014474143966618</v>
       </c>
       <c r="K21">
-        <v>1.028428731936087</v>
+        <v>1.028877704139551</v>
       </c>
       <c r="L21">
-        <v>1.008783577927013</v>
+        <v>1.00946709094903</v>
       </c>
       <c r="M21">
-        <v>1.031925606449266</v>
+        <v>1.032325565398749</v>
       </c>
       <c r="N21">
-        <v>1.008374560740008</v>
+        <v>1.011493310749531</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033839335251499</v>
+        <v>1.034155878833302</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031254155556281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031588489584243</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020134586562783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9807042287017553</v>
+        <v>0.9816822317699402</v>
       </c>
       <c r="D22">
-        <v>1.011847175400552</v>
+        <v>1.012498361962081</v>
       </c>
       <c r="E22">
-        <v>0.9915301594193958</v>
+        <v>0.992395633933738</v>
       </c>
       <c r="F22">
-        <v>1.01530206837048</v>
+        <v>1.015858424914768</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041570170775961</v>
+        <v>1.041871698450272</v>
       </c>
       <c r="J22">
-        <v>1.012315332086636</v>
+        <v>1.013248008656573</v>
       </c>
       <c r="K22">
-        <v>1.027187535000149</v>
+        <v>1.027826224421735</v>
       </c>
       <c r="L22">
-        <v>1.007271293745795</v>
+        <v>1.008119255123088</v>
       </c>
       <c r="M22">
-        <v>1.030576363439805</v>
+        <v>1.03112213625962</v>
       </c>
       <c r="N22">
-        <v>1.007891478918835</v>
+        <v>1.011417781170964</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032771489073428</v>
+        <v>1.033203436231664</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030362996215613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030830175095742</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019917760597404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9821917758056539</v>
+        <v>0.9830566010699867</v>
       </c>
       <c r="D23">
-        <v>1.012821634888102</v>
+        <v>1.013361286107249</v>
       </c>
       <c r="E23">
-        <v>0.9926652966748194</v>
+        <v>0.9934306296901489</v>
       </c>
       <c r="F23">
-        <v>1.01633626318302</v>
+        <v>1.016806249605698</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041830638119222</v>
+        <v>1.042083233656275</v>
       </c>
       <c r="J23">
-        <v>1.01305452222048</v>
+        <v>1.013880444515854</v>
       </c>
       <c r="K23">
-        <v>1.027836270462726</v>
+        <v>1.028365828265561</v>
       </c>
       <c r="L23">
-        <v>1.008067252374868</v>
+        <v>1.00881750196397</v>
       </c>
       <c r="M23">
-        <v>1.031285413514385</v>
+        <v>1.031746687802759</v>
       </c>
       <c r="N23">
-        <v>1.008144427409986</v>
+        <v>1.011412616101403</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033332660545209</v>
+        <v>1.033697731800121</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030812001231068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031201076659929</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020026989810636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9879554195290214</v>
+        <v>0.9884422095114699</v>
       </c>
       <c r="D24">
-        <v>1.016617295351363</v>
+        <v>1.016770396507511</v>
       </c>
       <c r="E24">
-        <v>0.9970822014829358</v>
+        <v>0.9975144001039059</v>
       </c>
       <c r="F24">
-        <v>1.020365030132095</v>
+        <v>1.020538649222518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042826829571261</v>
+        <v>1.042911255991708</v>
       </c>
       <c r="J24">
-        <v>1.015925130989511</v>
+        <v>1.016392542611143</v>
       </c>
       <c r="K24">
-        <v>1.030358744410651</v>
+        <v>1.030509269599701</v>
       </c>
       <c r="L24">
-        <v>1.011160751421424</v>
+        <v>1.011585306721022</v>
       </c>
       <c r="M24">
-        <v>1.034043708741097</v>
+        <v>1.03421443429531</v>
       </c>
       <c r="N24">
-        <v>1.009128147695292</v>
+        <v>1.011591342278284</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035515684888107</v>
+        <v>1.035650803647451</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032587991000544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032708310534094</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020463564372879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9944331121034071</v>
+        <v>0.9946596227341177</v>
       </c>
       <c r="D25">
-        <v>1.020902615157855</v>
+        <v>1.02073906327038</v>
       </c>
       <c r="E25">
-        <v>1.002078298302248</v>
+        <v>1.002283704354661</v>
       </c>
       <c r="F25">
-        <v>1.024928004432277</v>
+        <v>1.024868483333218</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043904858596501</v>
+        <v>1.043854339417376</v>
       </c>
       <c r="J25">
-        <v>1.019149287687402</v>
+        <v>1.019368058244901</v>
       </c>
       <c r="K25">
-        <v>1.033184884739656</v>
+        <v>1.033023741926731</v>
       </c>
       <c r="L25">
-        <v>1.014644436811501</v>
+        <v>1.014846671896754</v>
       </c>
       <c r="M25">
-        <v>1.037151288560678</v>
+        <v>1.037092635363769</v>
       </c>
       <c r="N25">
-        <v>1.010232366004046</v>
+        <v>1.012352549711978</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037975138860566</v>
+        <v>1.037928718622932</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034583358952908</v>
+        <v>1.034483000649739</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02097765241502</v>
       </c>
     </row>
   </sheetData>
